--- a/Stocks/BEL.xlsx
+++ b/Stocks/BEL.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>182.86666666666667</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>181.17862961745919</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>UP</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>176.41371465753119</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>UP</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>UP</v>
       </c>
       <c r="N67">
         <v>79.638870166698922</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>0.84999999999999432</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>1.9499999999999886</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.43589743589743551</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>No Indication</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>174.03675458204523</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>2.8683182169493477</v>
       </c>
       <c r="Y67">
         <v>1.8303471890146701</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>UP</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>190.25</v>
+      </c>
+      <c r="D83">
+        <v>191.3</v>
+      </c>
+      <c r="E83">
+        <v>188.2</v>
+      </c>
+      <c r="F83">
+        <v>188.7</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>189.4</v>
+      </c>
+      <c r="H83">
+        <v>186.63066093896919</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>185.72091194459162</v>
+      </c>
+      <c r="K83">
+        <v>180.16712091029129</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N83">
+        <v>76.153967027756693</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>0.5</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>3.1000000000000227</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.16129032258064399</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>181.76589751314938</v>
+      </c>
+      <c r="W83">
+        <v>178.85306711421902</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>2.9128303989303674</v>
+      </c>
+      <c r="Y83">
+        <v>2.0718853678275826</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>187.5</v>
+      </c>
+      <c r="D84">
+        <v>189.8</v>
+      </c>
+      <c r="E84">
+        <v>184.1</v>
+      </c>
+      <c r="F84">
+        <v>184.6</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>186.16666666666666</v>
+      </c>
+      <c r="H84">
+        <v>186.39866380281791</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>186.62737595690459</v>
+      </c>
+      <c r="K84">
+        <v>181.04109404133766</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>55.919894380671224</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>0.5</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>5.7000000000000171</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>8.7719298245613767E-2</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>182.20191328035716</v>
+      </c>
+      <c r="W84">
+        <v>179.27876584649908</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>2.9231474338580767</v>
+      </c>
+      <c r="Y84">
+        <v>2.2421377810336813</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>186.4</v>
+      </c>
+      <c r="D85">
+        <v>193.3</v>
+      </c>
+      <c r="E85">
+        <v>186.4</v>
+      </c>
+      <c r="F85">
+        <v>192.2</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>190.63333333333335</v>
+      </c>
+      <c r="H85">
+        <v>188.51599856807564</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>188.11018129981468</v>
+      </c>
+      <c r="K85">
+        <v>182.2319620321515</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N85">
+        <v>72.716717329677238</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>5.7999999999999829</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>6.9000000000000057</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.84057971014492439</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V85">
+        <v>183.74008046799452</v>
+      </c>
+      <c r="W85">
+        <v>180.23589430231397</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>3.5041861656805509</v>
+      </c>
+      <c r="Y85">
+        <v>2.4945474579630553</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD85">
+        <f t="shared" si="35"/>
+        <v>187.20000000000002</v>
+      </c>
+      <c r="AE85">
+        <f t="shared" si="36"/>
+        <v>189.05</v>
+      </c>
+      <c r="AF85">
+        <f t="shared" si="37"/>
+        <v>189.85000000000002</v>
+      </c>
+      <c r="AG85">
+        <f t="shared" si="38"/>
+        <v>190.65</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>193.7</v>
+      </c>
+      <c r="D86">
+        <v>194.7</v>
+      </c>
+      <c r="E86">
+        <v>189</v>
+      </c>
+      <c r="F86">
+        <v>190.05</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>191.25</v>
+      </c>
+      <c r="H86">
+        <v>189.88299928403782</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>189.57458545541141</v>
+      </c>
+      <c r="K86">
+        <v>183.73597046945116</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N86">
+        <v>64.081871543536096</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>1.0500000000000114</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>5.6999999999999886</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.18421052631579182</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>184.71083731907228</v>
+      </c>
+      <c r="W86">
+        <v>180.96286509473515</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>3.7479722243371327</v>
+      </c>
+      <c r="Y86">
+        <v>2.745232411237871</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>190.8</v>
+      </c>
+      <c r="D87">
+        <v>194.6</v>
+      </c>
+      <c r="E87">
+        <v>190.3</v>
+      </c>
+      <c r="F87">
+        <v>193.9</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>192.93333333333331</v>
+      </c>
+      <c r="H87">
+        <v>191.40816630868557</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>190.69134424309777</v>
+      </c>
+      <c r="K87">
+        <v>185.19464369846202</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>71.624135190167706</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>3.5999999999999943</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>4.2999999999999829</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.83720930232558344</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V87">
+        <v>186.12455465459962</v>
+      </c>
+      <c r="W87">
+        <v>181.92117138401403</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>4.20338327058559</v>
+      </c>
+      <c r="Y87">
+        <v>3.036862583107415</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD87">
+        <f t="shared" si="35"/>
+        <v>190.8</v>
+      </c>
+      <c r="AE87">
+        <f t="shared" si="36"/>
+        <v>191.95000000000002</v>
+      </c>
+      <c r="AF87">
+        <f t="shared" si="37"/>
+        <v>192.45000000000002</v>
+      </c>
+      <c r="AG87">
+        <f t="shared" si="38"/>
+        <v>192.95000000000002</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>193.9</v>
+      </c>
+      <c r="D88">
+        <v>194.3</v>
+      </c>
+      <c r="E88">
+        <v>189.85</v>
+      </c>
+      <c r="F88">
+        <v>191.85</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>192</v>
+      </c>
+      <c r="H88">
+        <v>191.70408315434278</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J88">
+        <v>191.49326774463159</v>
+      </c>
+      <c r="K88">
+        <v>186.22916732102601</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N88">
+        <v>62.841271927109752</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>4.4500000000000171</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.44943820224718928</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>187.00539240004582</v>
+      </c>
+      <c r="W88">
+        <v>182.65664017038335</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>4.3487522296624661</v>
+      </c>
+      <c r="Y88">
+        <v>3.2992405124184252</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>191.7</v>
+      </c>
+      <c r="D89">
+        <v>193.15</v>
+      </c>
+      <c r="E89">
+        <v>191.1</v>
+      </c>
+      <c r="F89">
+        <v>192.1</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>192.11666666666667</v>
+      </c>
+      <c r="H89">
+        <v>191.91037491050474</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>191.86143046804679</v>
+      </c>
+      <c r="K89">
+        <v>187.31157458302022</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N89">
+        <v>63.523124558782527</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>2.0500000000000114</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.48780487804877776</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>187.78917818465416</v>
+      </c>
+      <c r="W89">
+        <v>183.35614830591052</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>4.4330298787436391</v>
+      </c>
+      <c r="Y89">
+        <v>3.5259983856834678</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>190.2</v>
+      </c>
+      <c r="D90">
+        <v>195.5</v>
+      </c>
+      <c r="E90">
+        <v>190.2</v>
+      </c>
+      <c r="F90">
+        <v>193.5</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>193.06666666666669</v>
+      </c>
+      <c r="H90">
+        <v>192.48852078858573</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>192.6700014751475</v>
+      </c>
+      <c r="K90">
+        <v>187.9534468979046</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N90">
+        <v>67.675185867009873</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>3.3000000000000114</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>5.3000000000000114</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.62264150943396313</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>188.66776615624582</v>
+      </c>
+      <c r="W90">
+        <v>184.10754472769491</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>4.5602214285509035</v>
+      </c>
+      <c r="Y90">
+        <v>3.7328429942569548</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>193.7</v>
+      </c>
+      <c r="D91">
+        <v>196.95</v>
+      </c>
+      <c r="E91">
+        <v>193.5</v>
+      </c>
+      <c r="F91">
+        <v>194.05</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>194.83333333333334</v>
+      </c>
+      <c r="H91">
+        <v>193.66092706095952</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>193.62111225844805</v>
+      </c>
+      <c r="K91">
+        <v>189.1860142539258</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N91">
+        <v>69.386403131361533</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>0.55000000000001137</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>3.4499999999999886</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.15942028985507628</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>189.49580213220801</v>
+      </c>
+      <c r="W91">
+        <v>184.8440228960138</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>4.6517792361942156</v>
+      </c>
+      <c r="Y91">
+        <v>3.9166302426444068</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>194.7</v>
+      </c>
+      <c r="D92">
+        <v>195.2</v>
+      </c>
+      <c r="E92">
+        <v>187.4</v>
+      </c>
+      <c r="F92">
+        <v>188.65</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>190.41666666666666</v>
+      </c>
+      <c r="H92">
+        <v>192.0387968638131</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>193.97197620101514</v>
+      </c>
+      <c r="K92">
+        <v>188.78912219749785</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N92">
+        <v>42.060114518120791</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>1.25</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>7.7999999999999829</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.1602564102564106</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>189.36567872725294</v>
+      </c>
+      <c r="W92">
+        <v>185.12594712593869</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>4.2397316013142472</v>
+      </c>
+      <c r="Y92">
+        <v>3.9812505143783747</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>189.5</v>
+      </c>
+      <c r="D93">
+        <v>192.5</v>
+      </c>
+      <c r="E93">
+        <v>188.5</v>
+      </c>
+      <c r="F93">
+        <v>192.05</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>191.01666666666665</v>
+      </c>
+      <c r="H93">
+        <v>191.52773176523988</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>193.64487037856733</v>
+      </c>
+      <c r="K93">
+        <v>188.72487282027609</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N93">
+        <v>55.769627883949724</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>3.5500000000000114</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.88750000000000284</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>189.7786512307525</v>
+      </c>
+      <c r="W93">
+        <v>185.63883993142471</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>4.1398112993277891</v>
+      </c>
+      <c r="Y93">
+        <v>4.0129626713682578</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>193.3</v>
+      </c>
+      <c r="D94">
+        <v>198</v>
+      </c>
+      <c r="E94">
+        <v>192.8</v>
+      </c>
+      <c r="F94">
+        <v>198</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>196.26666666666665</v>
+      </c>
+      <c r="H94">
+        <v>193.89719921595326</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>194.61267696110792</v>
+      </c>
+      <c r="K94">
+        <v>189.63045663799252</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>70.855011458732591</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>5.1999999999999886</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>5.1999999999999886</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V94">
+        <v>191.04347411832904</v>
+      </c>
+      <c r="W94">
+        <v>186.55448141798584</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>4.4889927003432035</v>
+      </c>
+      <c r="Y94">
+        <v>4.1081686771632473</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>197.95</v>
+      </c>
+      <c r="D95">
+        <v>199.15</v>
+      </c>
+      <c r="E95">
+        <v>193.95</v>
+      </c>
+      <c r="F95">
+        <v>194.6</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>195.9</v>
+      </c>
+      <c r="H95">
+        <v>194.89859960797662</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>195.6209709697506</v>
+      </c>
+      <c r="K95">
+        <v>190.59035516288307</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N95">
+        <v>56.974942490831495</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>0.65000000000000568</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>5.2000000000000171</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.12500000000000069</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>191.59063194627842</v>
+      </c>
+      <c r="W95">
+        <v>187.15044575739429</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>4.4401861888841268</v>
+      </c>
+      <c r="Y95">
+        <v>4.1745721795074235</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>194.85</v>
+      </c>
+      <c r="D96">
+        <v>195.75</v>
+      </c>
+      <c r="E96">
+        <v>188.7</v>
+      </c>
+      <c r="F96">
+        <v>190.85</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>191.76666666666665</v>
+      </c>
+      <c r="H96">
+        <v>193.33263313732164</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>195.64964408758379</v>
+      </c>
+      <c r="K96">
+        <v>190.17027623779794</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N96">
+        <v>44.859531555094215</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>2.1500000000000057</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>7.0500000000000114</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.30496453900709253</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>191.47668856992789</v>
+      </c>
+      <c r="W96">
+        <v>187.42448681240214</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>4.0522017575257507</v>
+      </c>
+      <c r="Y96">
+        <v>4.1500980951110886</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>189.9</v>
+      </c>
+      <c r="D97">
+        <v>190.75</v>
+      </c>
+      <c r="E97">
+        <v>187</v>
+      </c>
+      <c r="F97">
+        <v>190.5</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>189.41666666666666</v>
+      </c>
+      <c r="H97">
+        <v>191.37464990199413</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J97">
+        <v>194.56083429034294</v>
+      </c>
+      <c r="K97">
+        <v>189.46577040717617</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N97">
+        <v>43.773573513313011</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>3.5</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>3.75</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>191.32642878993897</v>
+      </c>
+      <c r="W97">
+        <v>187.65230260407606</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>3.6741261858629173</v>
+      </c>
+      <c r="Y97">
+        <v>4.0549037132614547</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>191.6</v>
+      </c>
+      <c r="D98">
+        <v>194.25</v>
+      </c>
+      <c r="E98">
+        <v>190.1</v>
+      </c>
+      <c r="F98">
+        <v>192.9</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>192.41666666666666</v>
+      </c>
+      <c r="H98">
+        <v>191.89565828433041</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>194.49176000360006</v>
+      </c>
+      <c r="K98">
+        <v>189.60671031669258</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N98">
+        <v>53.435550429072912</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>2.8000000000000114</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>4.1500000000000057</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.67469879518072473</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>191.5685166684099</v>
+      </c>
+      <c r="W98">
+        <v>188.04102092970004</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>3.5274957387098596</v>
+      </c>
+      <c r="Y98">
+        <v>3.9494221183511358</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>192.95</v>
+      </c>
+      <c r="D99">
+        <v>194.2</v>
+      </c>
+      <c r="E99">
+        <v>190.25</v>
+      </c>
+      <c r="F99">
+        <v>191.65</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>192.03333333333333</v>
+      </c>
+      <c r="H99">
+        <v>191.96449580883188</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J99">
+        <v>194.42692444724449</v>
+      </c>
+      <c r="K99">
+        <v>189.74966357964979</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>48.058940947227072</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>1.4000000000000057</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>3.9499999999999886</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.35443037974683789</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>191.58105256557761</v>
+      </c>
+      <c r="W99">
+        <v>188.30835271268523</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>3.272699852892373</v>
+      </c>
+      <c r="Y99">
+        <v>3.8140776652593833</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>192</v>
+      </c>
+      <c r="D100">
+        <v>192.7</v>
+      </c>
+      <c r="E100">
+        <v>190.1</v>
+      </c>
+      <c r="F100">
+        <v>191.3</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>191.36666666666665</v>
+      </c>
+      <c r="H100">
+        <v>191.66558123774928</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>194.04316345896794</v>
+      </c>
+      <c r="K100">
+        <v>189.82751611750538</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>46.424048229508877</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>1.2000000000000171</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>2.5999999999999943</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.46153846153846911</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>191.5378137093349</v>
+      </c>
+      <c r="W100">
+        <v>188.52995621544929</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>3.0078574938856093</v>
+      </c>
+      <c r="Y100">
+        <v>3.6528336309846283</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>192.5</v>
+      </c>
+      <c r="D101">
+        <v>192.9</v>
+      </c>
+      <c r="E101">
+        <v>187.35</v>
+      </c>
+      <c r="F101">
+        <v>188</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>189.41666666666666</v>
+      </c>
+      <c r="H101">
+        <v>190.54112395220795</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>193.78912713475285</v>
+      </c>
+      <c r="K101">
+        <v>189.27695698028197</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N101">
+        <v>33.137968540490206</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>0.65000000000000568</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>5.5500000000000114</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.11711711711711791</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V101">
+        <v>190.99353467712953</v>
+      </c>
+      <c r="W101">
+        <v>188.49070019949008</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>2.5028344776394533</v>
+      </c>
+      <c r="Y101">
+        <v>3.4228338003155931</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>187.6</v>
+      </c>
+      <c r="D102">
+        <v>187.6</v>
+      </c>
+      <c r="E102">
+        <v>180</v>
+      </c>
+      <c r="F102">
+        <v>182</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>183.20000000000002</v>
+      </c>
+      <c r="H102">
+        <v>186.870561976104</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>192.41376554925222</v>
+      </c>
+      <c r="K102">
+        <v>187.21541098466375</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>20.078373750969572</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>7.5999999999999943</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.26315789473684231</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V102">
+        <v>189.60991395757114</v>
+      </c>
+      <c r="W102">
+        <v>188.00990759212044</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>1.600006365450696</v>
+      </c>
+      <c r="Y102">
+        <v>3.0582683133426136</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>181</v>
+      </c>
+      <c r="D103">
+        <v>182.45</v>
+      </c>
+      <c r="E103">
+        <v>174.1</v>
+      </c>
+      <c r="F103">
+        <v>181.2</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>179.25</v>
+      </c>
+      <c r="H103">
+        <v>183.060280988052</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>190.19959542719616</v>
+      </c>
+      <c r="K103">
+        <v>184.30087521029404</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>18.8408512850046</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>7.0999999999999943</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>8.3499999999999943</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.85029940119760472</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>188.31608104102173</v>
+      </c>
+      <c r="W103">
+        <v>187.50546999270412</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>0.81061104831761099</v>
+      </c>
+      <c r="Y103">
+        <v>2.6087368603376131</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>181.05</v>
+      </c>
+      <c r="D104">
+        <v>183.9</v>
+      </c>
+      <c r="E104">
+        <v>180.45</v>
+      </c>
+      <c r="F104">
+        <v>182.75</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>182.36666666666667</v>
+      </c>
+      <c r="H104">
+        <v>182.71347382735934</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J104">
+        <v>188.79968533226369</v>
+      </c>
+      <c r="K104">
+        <v>183.44512516356204</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N104">
+        <v>29.382079303693072</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>2.3000000000000114</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>3.4500000000000171</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>187.45976088086454</v>
+      </c>
+      <c r="W104">
+        <v>187.15321295620751</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>0.30654792465702485</v>
+      </c>
+      <c r="Y104">
+        <v>2.1482990732014953</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>183.1</v>
+      </c>
+      <c r="D105">
+        <v>184.6</v>
+      </c>
+      <c r="E105">
+        <v>176.1</v>
+      </c>
+      <c r="F105">
+        <v>176.9</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>179.20000000000002</v>
+      </c>
+      <c r="H105">
+        <v>180.95673691367966</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>187.86642192509399</v>
+      </c>
+      <c r="K105">
+        <v>181.81287512721491</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>18.218546848297706</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>0.80000000000001137</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>8.5</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>9.411764705882486E-2</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V105">
+        <v>185.83518228380845</v>
+      </c>
+      <c r="W105">
+        <v>186.39371570019213</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>-0.55853341638368192</v>
+      </c>
+      <c r="Y105">
+        <v>1.6069325752844597</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD105">
+        <f t="shared" si="35"/>
+        <v>183.65</v>
+      </c>
+      <c r="AE105">
+        <f t="shared" si="36"/>
+        <v>181.35000000000002</v>
+      </c>
+      <c r="AF105">
+        <f t="shared" si="37"/>
+        <v>180.35000000000002</v>
+      </c>
+      <c r="AG105">
+        <f t="shared" si="38"/>
+        <v>179.35000000000002</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>166</v>
+      </c>
+      <c r="D106">
+        <v>166.55</v>
+      </c>
+      <c r="E106">
+        <v>162.1</v>
+      </c>
+      <c r="F106">
+        <v>162.4</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>163.68333333333331</v>
+      </c>
+      <c r="H106">
+        <v>172.3200351235065</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J106">
+        <v>183.12943927507311</v>
+      </c>
+      <c r="K106">
+        <v>177.43223621005603</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N106">
+        <v>8.3679729901921149</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>0.30000000000001137</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>4.4500000000000171</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>6.7415730337080954E-2</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V106">
+        <v>182.22976962476099</v>
+      </c>
+      <c r="W106">
+        <v>184.61640342610383</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>-2.386633801342839</v>
+      </c>
+      <c r="Y106">
+        <v>0.80821929995899988</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD106">
+        <f t="shared" si="35"/>
+        <v>166.05</v>
+      </c>
+      <c r="AE106">
+        <f t="shared" si="36"/>
+        <v>164.85000000000002</v>
+      </c>
+      <c r="AF106">
+        <f t="shared" si="37"/>
+        <v>164.3</v>
+      </c>
+      <c r="AG106">
+        <f t="shared" si="38"/>
+        <v>163.80000000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>163.80000000000001</v>
+      </c>
+      <c r="D107">
+        <v>166.6</v>
+      </c>
+      <c r="E107">
+        <v>161.94999999999999</v>
+      </c>
+      <c r="F107">
+        <v>163.80000000000001</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>164.11666666666665</v>
+      </c>
+      <c r="H107">
+        <v>168.21835089508659</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J107">
+        <v>179.45623054727909</v>
+      </c>
+      <c r="K107">
+        <v>173.99173927448803</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N107">
+        <v>13.981183228674244</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>1.8500000000000227</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>4.6500000000000057</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.39784946236559582</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>179.39442045172083</v>
+      </c>
+      <c r="W107">
+        <v>183.0744476167628</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>-3.6800271650419631</v>
+      </c>
+      <c r="Y107">
+        <v>-8.9429993041192812E-2</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
